--- a/xlsx/L2-2.xlsx
+++ b/xlsx/L2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBEA0B-F7C3-4243-9D9B-C6AFF06AC001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347D1E7-AEAF-4B3E-8EDC-8F9C93272FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Week</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>median</t>
-  </si>
-  <si>
-    <t>baseline</t>
   </si>
 </sst>
 </file>
@@ -566,91 +563,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.406714297322196</c:v>
+                  <c:v>17.225503982499525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,91 +789,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2752744720077462</c:v>
+                  <c:v>3.0940641571850751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -897,7 +894,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>baseline</c:v>
+                  <c:v>median</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1018,91 +1015,91 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.153041308968742</c:v>
+                  <c:v>10.159784069842299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,13 +2122,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:colOff>430694</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>434579</xdr:colOff>
+      <xdr:colOff>434578</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2148,8 +2145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11406187" y="2590800"/>
-          <a:ext cx="636986" cy="238125"/>
+          <a:off x="11529390" y="2590800"/>
+          <a:ext cx="616797" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,7 +2174,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1"/>
-            <a:t>Baseline</a:t>
+            <a:t>Median</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -3444,7 +3441,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3477,16 +3474,16 @@
         <v>10.153041308968742</v>
       </c>
       <c r="C2" s="1">
-        <f>B2</f>
-        <v>10.153041308968742</v>
+        <f>MEDIAN(B2:B30)</f>
+        <v>10.159784069842299</v>
       </c>
       <c r="D2" s="1">
         <f>H$3+(H$2* 3 )</f>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E2" s="1">
         <f>H$3-(H$2* 3 )</f>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -3505,21 +3502,22 @@
       </c>
       <c r="C3" s="1">
         <f>C$2</f>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D53" si="0">H$3+(H$2* 3 )</f>
-        <v>17.406714297322196</v>
+        <f t="shared" ref="D3:D30" si="0">H$3+(H$2* 3 )</f>
+        <v>17.225503982499525</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E53" si="1">H$3-(H$2* 3 )</f>
-        <v>3.2752744720077462</v>
+        <f t="shared" ref="E3:E30" si="1">H$3-(H$2* 3 )</f>
+        <v>3.0940641571850751</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>10.34099438466497</v>
+      <c r="H3" s="1">
+        <f>MEDIAN(B2:B30)</f>
+        <v>10.159784069842299</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3531,15 +3529,15 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C30" si="2">C$2</f>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3551,15 +3549,15 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3571,15 +3569,15 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3591,15 +3589,15 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3611,15 +3609,15 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3631,15 +3629,15 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3651,15 +3649,15 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3671,15 +3669,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3691,15 +3689,15 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3711,15 +3709,15 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3731,15 +3729,15 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3751,15 +3749,15 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3771,15 +3769,15 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3791,15 +3789,15 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3811,15 +3809,15 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3831,15 +3829,15 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,15 +3849,15 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3871,15 +3869,15 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,15 +3889,15 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,15 +3909,15 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3931,15 +3929,15 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3951,15 +3949,15 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,15 +3969,15 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3991,15 +3989,15 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4011,15 +4009,15 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4031,15 +4029,15 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4051,15 +4049,15 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
-        <v>10.153041308968742</v>
+        <v>10.159784069842299</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>17.406714297322196</v>
+        <v>17.225503982499525</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>3.2752744720077462</v>
+        <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/xlsx/L2-2.xlsx
+++ b/xlsx/L2-2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347D1E7-AEAF-4B3E-8EDC-8F9C93272FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79790DE8-3F84-40B5-9A3B-7338A8111E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="L1" sheetId="1" r:id="rId1"/>
+    <sheet name="L2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +38,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>perc</t>
-  </si>
-  <si>
     <t>UCL</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -86,9 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,11 +207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$B$1</c:f>
+              <c:f>'L2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>perc</c:v>
+                  <c:v>%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -236,7 +242,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -332,7 +338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$B$2:$B$53</c:f>
+              <c:f>'L2'!$B$2:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -438,7 +444,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$D$1</c:f>
+              <c:f>'L2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -462,7 +468,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -558,7 +564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$D$2:$D$53</c:f>
+              <c:f>'L2'!$D$2:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -664,7 +670,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$E$1</c:f>
+              <c:f>'L2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -688,7 +694,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -784,7 +790,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$E$2:$E$53</c:f>
+              <c:f>'L2'!$E$2:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -890,7 +896,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'L1'!$C$1</c:f>
+              <c:f>'L2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -914,7 +920,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L1'!$A$2:$A$53</c:f>
+              <c:f>'L2'!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1010,7 +1016,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L1'!$C$2:$C$53</c:f>
+              <c:f>'L2'!$C$2:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
@@ -3440,53 +3446,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>10.153041308968742</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <f>MEDIAN(B2:B30)</f>
         <v>10.159784069842299</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <f>H$3+(H$2* 3 )</f>
         <v>17.225503982499525</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <f>H$3-(H$2* 3 )</f>
         <v>3.0940641571850751</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>STDEV(B2:B53)</f>
@@ -3494,26 +3502,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>9.0954059070930224</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>C$2</f>
         <v>10.159784069842299</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D30" si="0">H$3+(H$2* 3 )</f>
         <v>17.225503982499525</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E30" si="1">H$3-(H$2* 3 )</f>
         <v>3.0940641571850751</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
         <f>MEDIAN(B2:B30)</f>
@@ -3521,682 +3529,682 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>9.5943494198374673</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C30" si="2">C$2</f>
         <v>10.159784069842299</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>12.639326701963327</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>8.1005619085876628</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>10.159784069842299</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>9.0665241452581107</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>12.205014413707524</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>11.340994384665001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>12.148209202777283</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>8.8779734357075952</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>8.3150046848766976</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>12.555710089756868</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>10.639616578802537</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>12.763306022315497</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>10.151122431344501</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>10.755229138321406</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>11.820478726730311</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>9.075992652295966</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>8.2559808611488119</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>8.6746491065817146</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>11.839062750424805</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>11.468182808283862</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>19.862482715889598</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>12.058326930862188</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>8.5430589252308042</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>8.9447878457229955</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>11.392461865701488</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>8.2143805512688601</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <f t="shared" si="2"/>
         <v>10.159784069842299</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>17.225503982499525</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>3.0940641571850751</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/L2-2.xlsx
+++ b/xlsx/L2-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79790DE8-3F84-40B5-9A3B-7338A8111E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA85410-821B-4CE2-80A9-B79EE3E8A1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3049,13 +3049,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>204389</xdr:colOff>
+      <xdr:colOff>213914</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>171757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>409088</xdr:colOff>
+      <xdr:colOff>396794</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>176007</xdr:rowOff>
     </xdr:to>
@@ -3072,8 +3072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7012693" y="2648257"/>
-          <a:ext cx="204699" cy="194750"/>
+          <a:off x="6986189" y="2648257"/>
+          <a:ext cx="182880" cy="194750"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3117,13 +3117,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>298811</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>175070</xdr:rowOff>
+      <xdr:rowOff>165545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>503510</xdr:colOff>
+      <xdr:colOff>481691</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>179320</xdr:rowOff>
+      <xdr:rowOff>169795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3138,8 +3138,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8945854" y="2651570"/>
-          <a:ext cx="204699" cy="194750"/>
+          <a:off x="8899886" y="2642045"/>
+          <a:ext cx="182880" cy="194750"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497593</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70873</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FCE76F-5E3B-4B46-8027-6CC50E1DCBB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050668" y="2648257"/>
+          <a:ext cx="182880" cy="194750"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3447,7 +3513,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
